--- a/backend/data/otraslevye_soglasheniya.xlsx
+++ b/backend/data/otraslevye_soglasheniya.xlsx
@@ -59,9 +59,6 @@
     <t>Скан соглашения</t>
   </si>
   <si>
-    <t>Действующее</t>
-  </si>
-  <si>
     <t>Статус согласования</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>01.07.2025</t>
+  </si>
+  <si>
+    <t>Действующий</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,36 +504,36 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>45846.999988425923</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>708</v>
@@ -541,36 +541,36 @@
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>45846.999988425923</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3">
         <v>708</v>
@@ -578,10 +578,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/otraslevye_soglasheniya.xlsx
+++ b/backend/data/otraslevye_soglasheniya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Статус согласования</t>
   </si>
   <si>
-    <t>2 квартал 2025</t>
-  </si>
-  <si>
     <t>Лев-Толстовский район</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>Действующий</t>
+  </si>
+  <si>
+    <t>3 квартал 2025</t>
+  </si>
+  <si>
+    <t>Данные актуализированы</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -512,28 +515,28 @@
     </row>
     <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>45846.999988425923</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="3">
         <v>708</v>
@@ -541,36 +544,36 @@
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>45846.999988425923</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3">
         <v>708</v>
@@ -578,10 +581,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/otraslevye_soglasheniya.xlsx
+++ b/backend/data/otraslevye_soglasheniya.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Данные актуализированы</t>
+  </si>
+  <si>
+    <t>2 квартал 2025</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="A5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +590,117 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45846.999988425923</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3">
+        <v>708</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45846.999988425923</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3">
+        <v>708</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45846.999988425923</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3">
+        <v>708</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
